--- a/target/classes/testData/testData.xlsx
+++ b/target/classes/testData/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernandoito/eclipse-workspace/TownSend/src/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E46EC3-98C4-634B-B185-084EB9069B7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFD8149-C1B3-0A41-980D-344E534CD19C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="460" windowWidth="27640" windowHeight="16080" xr2:uid="{9CCB246B-7C07-5D44-9585-9FF13C513735}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -57,19 +57,10 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Create</t>
-  </si>
-  <si>
-    <t>Update</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
     <t>em@il</t>
-  </si>
-  <si>
-    <t>Delete</t>
   </si>
   <si>
     <t>StartDate</t>
@@ -449,16 +440,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71023D7-1429-0E4A-9F47-4F4DE630D065}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.5" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.6640625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -478,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -486,7 +477,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -495,69 +486,21 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{ACF1BE7E-57CF-4149-B3D4-D42504DC4A8B}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{4FD37039-81C8-354D-9717-CEF81EC4A955}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{3922B48B-BC31-D445-8D19-51B1E8F8EC9D}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{3922B48B-BC31-D445-8D19-51B1E8F8EC9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
